--- a/SO SACH/3702076037/2016/TM-BCTC 16.xlsx
+++ b/SO SACH/3702076037/2016/TM-BCTC 16.xlsx
@@ -610,7 +610,7 @@
     <t>Năm 2016</t>
   </si>
   <si>
-    <t>Ngày 31 tháng 12  năm 2016</t>
+    <t>Ngày 20 tháng 02  năm 2017</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,18 +656,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -677,13 +665,6 @@
       <b/>
       <u/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -701,21 +682,7 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1600,7 +1567,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
@@ -1609,36 +1576,324 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -1646,314 +1901,11 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -1997,11 +1949,11 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2025,11 +1977,11 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2037,11 +1989,11 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2065,18 +2017,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0" hidden="1"/>
@@ -2089,55 +2029,55 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2165,7 +2105,7 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2173,15 +2113,15 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2193,15 +2133,11 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2257,22 +2193,14 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -2357,7 +2285,7 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2369,6 +2297,40 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -2381,46 +2343,27 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2440,11 +2383,11 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -6350,89 +6293,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192:G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" style="206" customWidth="1"/>
-    <col min="2" max="3" width="10" style="206" customWidth="1"/>
-    <col min="4" max="4" width="17" style="206" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" style="206" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="206" customWidth="1"/>
+    <col min="1" max="1" width="44" style="192" customWidth="1"/>
+    <col min="2" max="3" width="10" style="192" customWidth="1"/>
+    <col min="4" max="4" width="17" style="192" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" style="192" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="192" customWidth="1"/>
     <col min="8" max="16384" width="13.5703125" style="197"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="196"/>
+      <c r="G2" s="195"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="210" t="s">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="210" t="s">
+      <c r="A4" s="209"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="206" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -6444,2235 +6387,2235 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="213"/>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
+      <c r="A14" s="207"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="19" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24">
         <v>3478837295</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="24">
         <v>2352331271</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28">
         <v>1691415</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="28">
         <v>1087724</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="15"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36">
         <f>SUM(E34:E36)</f>
         <v>3480528710</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="37">
         <f>SUM(F34:F36)</f>
         <v>2353418995</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="198"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="184"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="23" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="18"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="18"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="18"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="18"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28">
         <v>596650875</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="28">
         <v>406645868</v>
       </c>
-      <c r="G45" s="18"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="18"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36">
         <f>+SUM(E40:E46)</f>
         <v>596650875</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="36">
         <f>+SUM(F40:F46)</f>
         <v>406645868</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="198"/>
-      <c r="G48" s="15"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="198"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="198"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="184"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="198"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="184"/>
     </row>
     <row r="52" spans="1:7" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="50" t="s">
+      <c r="G52" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="199"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="56"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="200"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="60"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="56"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="56"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="56"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="200"/>
-      <c r="G59" s="56"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="56"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="56"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="56"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="201"/>
-      <c r="G63" s="56"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="187"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="56"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="202"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="202"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="201"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="56"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="188"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="202"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="52"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="56"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="52"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="52"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="56"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="52"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="60"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="56"/>
     </row>
     <row r="72" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="201"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
+      <c r="B72" s="187"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="60"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="58" t="s">
+      <c r="A73" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="201"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="60"/>
+      <c r="B73" s="187"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="56"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="71"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="67"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="71"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="71"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="67"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
     </row>
     <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="73"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="69"/>
     </row>
     <row r="81" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="203" t="s">
+      <c r="A81" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="78" t="s">
+      <c r="D81" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E81" s="78" t="s">
+      <c r="E81" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F81" s="204" t="s">
+      <c r="F81" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="G81" s="15"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="79" t="s">
+      <c r="A82" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="15"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="12"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="15"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="12"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="15"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="12"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="15"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="15"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="83"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="15"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="15"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="15"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="83"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="15"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="83"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="15"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="12"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="15"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="12"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="15"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="12"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="15"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="12"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="15"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="12"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="82" t="s">
+      <c r="A96" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="15"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="12"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="82" t="s">
+      <c r="A97" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B97" s="83"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="15"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="12"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="15"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="12"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="83"/>
-      <c r="C99" s="83"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="15"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="12"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="85" t="s">
+      <c r="A100" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="86"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="86"/>
-      <c r="E100" s="86"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="15"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="12"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="194"/>
-      <c r="F101" s="194"/>
-      <c r="G101" s="194"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="193"/>
+      <c r="F101" s="193"/>
+      <c r="G101" s="193"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="88" t="s">
+      <c r="A102" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="194"/>
-      <c r="F102" s="194"/>
-      <c r="G102" s="194"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="193"/>
+      <c r="F102" s="193"/>
+      <c r="G102" s="193"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="194"/>
-      <c r="F103" s="194"/>
-      <c r="G103" s="18"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="193"/>
+      <c r="F103" s="193"/>
+      <c r="G103" s="14"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="89"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="23" t="s">
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F104" s="23" t="s">
+      <c r="F104" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="15"/>
+      <c r="G104" s="12"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="91" t="s">
+      <c r="A105" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="94"/>
-      <c r="F105" s="94"/>
-      <c r="G105" s="95"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="91"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="96" t="s">
+      <c r="A106" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="98"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="95"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="91"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="96" t="s">
+      <c r="A107" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="97"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="98"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="95"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="91"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="100" t="s">
+      <c r="A108" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="97"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="98"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
-      <c r="G108" s="95"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="91"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="96" t="s">
+      <c r="A109" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="97"/>
-      <c r="C109" s="97"/>
-      <c r="D109" s="98"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="102"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="93"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="97"/>
+      <c r="F109" s="97"/>
+      <c r="G109" s="98"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="96" t="s">
+      <c r="A110" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="97"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="98"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="73"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="69"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="104" t="s">
+      <c r="A111" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="105"/>
-      <c r="C111" s="105"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="107"/>
-      <c r="F111" s="107"/>
-      <c r="G111" s="73"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="102"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="69"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="108" t="s">
+      <c r="A112" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="109"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="110"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="102"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="107"/>
+      <c r="G112" s="98"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="112" t="s">
+      <c r="A113" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="73"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="95"/>
-      <c r="F113" s="95"/>
-      <c r="G113" s="95"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="91"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="112"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="95"/>
+      <c r="A114" s="108"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="91"/>
+      <c r="F114" s="91"/>
+      <c r="G114" s="91"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="89"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="23" t="s">
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="F115" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G115" s="15"/>
+      <c r="G115" s="12"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="113" t="s">
+      <c r="A116" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="114"/>
-      <c r="C116" s="114"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="115">
+      <c r="B116" s="110"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="111">
         <v>-3545617</v>
       </c>
-      <c r="F116" s="115">
+      <c r="F116" s="111">
         <v>-3168387</v>
       </c>
-      <c r="G116" s="116"/>
+      <c r="G116" s="112"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="117" t="s">
+      <c r="A117" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="118"/>
-      <c r="C117" s="118"/>
-      <c r="D117" s="118"/>
-      <c r="E117" s="119"/>
-      <c r="F117" s="119"/>
-      <c r="G117" s="116"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="112"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="117" t="s">
+      <c r="A118" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="118"/>
-      <c r="C118" s="118"/>
-      <c r="D118" s="118"/>
-      <c r="E118" s="119"/>
-      <c r="F118" s="119"/>
-      <c r="G118" s="116"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="112"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="121" t="s">
+      <c r="A119" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="119"/>
-      <c r="F119" s="119">
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28">
         <v>1409132</v>
       </c>
-      <c r="G119" s="116"/>
+      <c r="G119" s="112"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="121" t="s">
+      <c r="A120" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="201"/>
-      <c r="F120" s="201"/>
-      <c r="G120" s="116"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="187"/>
+      <c r="F120" s="187"/>
+      <c r="G120" s="112"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="117" t="s">
+      <c r="A121" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="118"/>
-      <c r="C121" s="118"/>
-      <c r="D121" s="118"/>
-      <c r="E121" s="120"/>
-      <c r="F121" s="120"/>
-      <c r="G121" s="116"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="115"/>
+      <c r="G121" s="112"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="117" t="s">
+      <c r="A122" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="118"/>
-      <c r="C122" s="118"/>
-      <c r="D122" s="118"/>
-      <c r="E122" s="120"/>
-      <c r="F122" s="120"/>
-      <c r="G122" s="116"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="115"/>
+      <c r="F122" s="115"/>
+      <c r="G122" s="112"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="117" t="s">
+      <c r="A123" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="116"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="112"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="123" t="s">
+      <c r="A124" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="46"/>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="36">
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="32">
         <v>3273996</v>
       </c>
-      <c r="F124" s="36"/>
-      <c r="G124" s="116"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="112"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="124" t="s">
+      <c r="A125" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="89"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="40">
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="36">
         <f>SUM(E116:E124)</f>
         <v>-271621</v>
       </c>
-      <c r="F125" s="40">
+      <c r="F125" s="36">
         <f>SUM(F116:F124)</f>
         <v>-1759255</v>
       </c>
-      <c r="G125" s="47"/>
+      <c r="G125" s="43"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="125"/>
-      <c r="B126" s="126"/>
-      <c r="C126" s="126"/>
-      <c r="D126" s="126"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="47"/>
+      <c r="A126" s="118"/>
+      <c r="B126" s="119"/>
+      <c r="C126" s="119"/>
+      <c r="D126" s="119"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="120"/>
+      <c r="G126" s="43"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="128"/>
-      <c r="F127" s="128"/>
-      <c r="G127" s="128"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="121"/>
+      <c r="G127" s="121"/>
     </row>
     <row r="128" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="129" t="s">
+      <c r="A128" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="130"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="131" t="s">
+      <c r="B128" s="123"/>
+      <c r="C128" s="123"/>
+      <c r="D128" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="E128" s="131" t="s">
+      <c r="E128" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="F128" s="131" t="s">
+      <c r="F128" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="G128" s="132" t="s">
+      <c r="G128" s="125" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="133" t="s">
+      <c r="A129" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="134"/>
-      <c r="C129" s="134"/>
-      <c r="D129" s="135">
+      <c r="B129" s="127"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="128">
         <v>1</v>
       </c>
-      <c r="E129" s="135">
+      <c r="E129" s="128">
         <v>2</v>
       </c>
-      <c r="F129" s="135">
+      <c r="F129" s="128">
         <v>3</v>
       </c>
-      <c r="G129" s="136">
+      <c r="G129" s="129">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="137" t="s">
+      <c r="A130" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="138"/>
-      <c r="C130" s="138"/>
-      <c r="D130" s="138">
+      <c r="B130" s="131"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="131">
         <v>2500000000</v>
       </c>
-      <c r="E130" s="138">
+      <c r="E130" s="131">
         <f>+[3]CDPS!I110/1000</f>
         <v>0</v>
       </c>
-      <c r="F130" s="138">
+      <c r="F130" s="131">
         <f>+[3]CDPS!H110/1000</f>
         <v>0</v>
       </c>
-      <c r="G130" s="139">
+      <c r="G130" s="132">
         <f>+D130-F130+E130</f>
         <v>2500000000</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="140" t="s">
+      <c r="A131" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="83"/>
-      <c r="C131" s="83"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="84"/>
+      <c r="B131" s="79"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="80"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="140" t="s">
+      <c r="A132" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="83"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="83"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="84"/>
+      <c r="B132" s="79"/>
+      <c r="C132" s="79"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="79"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="80"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="140" t="s">
+      <c r="A133" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="83"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="84"/>
+      <c r="B133" s="79"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="80"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="140" t="s">
+      <c r="A134" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="B134" s="83"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="83">
+      <c r="B134" s="79"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="79">
         <v>0</v>
       </c>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83">
+      <c r="E134" s="79"/>
+      <c r="F134" s="79">
         <f>MAX(-[3]CDPS!I113+[3]CDPS!H113,0)/1000</f>
         <v>0</v>
       </c>
-      <c r="G134" s="139">
+      <c r="G134" s="132">
         <f>+D134-F134+E134</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="141" t="s">
+      <c r="A135" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="B135" s="142"/>
-      <c r="C135" s="142"/>
-      <c r="D135" s="142">
+      <c r="B135" s="135"/>
+      <c r="C135" s="135"/>
+      <c r="D135" s="135">
         <v>10551590</v>
       </c>
-      <c r="E135" s="142"/>
-      <c r="F135" s="142">
-        <v>0</v>
-      </c>
-      <c r="G135" s="142">
+      <c r="E135" s="135"/>
+      <c r="F135" s="135">
+        <v>46234232</v>
+      </c>
+      <c r="G135" s="135">
         <f>+D135-F135+E135</f>
-        <v>10551590</v>
+        <v>-35682642</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="143" t="s">
+      <c r="A136" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="B136" s="144"/>
-      <c r="C136" s="144" t="s">
+      <c r="B136" s="137"/>
+      <c r="C136" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="D136" s="145">
+      <c r="D136" s="138">
         <f>SUM(D130:D135)</f>
         <v>2510551590</v>
       </c>
-      <c r="E136" s="145">
+      <c r="E136" s="138">
         <f>SUM(E130:E135)</f>
         <v>0</v>
       </c>
-      <c r="F136" s="145">
+      <c r="F136" s="138">
         <f>SUM(F130:F135)</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="146">
+        <v>46234232</v>
+      </c>
+      <c r="G136" s="139">
         <f>SUM(G130:G135)</f>
-        <v>2510551590</v>
+        <v>2464317358</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="147" t="s">
+      <c r="A137" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="B137" s="144"/>
-      <c r="C137" s="144"/>
-      <c r="D137" s="144"/>
-      <c r="E137" s="148"/>
-      <c r="F137" s="148"/>
-      <c r="G137" s="149"/>
+      <c r="B137" s="137"/>
+      <c r="C137" s="137"/>
+      <c r="D137" s="137"/>
+      <c r="E137" s="141"/>
+      <c r="F137" s="141"/>
+      <c r="G137" s="142"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="71"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="67"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="150"/>
-      <c r="F140" s="150"/>
-      <c r="G140" s="47"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="151" t="s">
+      <c r="A141" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="152" t="s">
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="F141" s="152" t="s">
+      <c r="F141" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="G141" s="15"/>
+      <c r="G141" s="12"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="153" t="s">
+      <c r="A142" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="114"/>
-      <c r="C142" s="114"/>
-      <c r="D142" s="114"/>
-      <c r="E142" s="115">
+      <c r="B142" s="110"/>
+      <c r="C142" s="110"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="111">
         <v>7036322165</v>
       </c>
-      <c r="F142" s="115">
+      <c r="F142" s="111">
         <v>2083350320</v>
       </c>
-      <c r="G142" s="15"/>
+      <c r="G142" s="12"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="154" t="s">
+      <c r="A143" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="15"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="12"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="154" t="s">
+      <c r="A144" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="15"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="154" t="s">
+      <c r="A145" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="15"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="12"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="154" t="s">
+      <c r="A146" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="32">
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="28">
         <v>27935</v>
       </c>
-      <c r="F146" s="32">
+      <c r="F146" s="28">
         <v>174476</v>
       </c>
-      <c r="G146" s="15"/>
+      <c r="G146" s="12"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="154" t="s">
+      <c r="A147" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="202"/>
-      <c r="F147" s="202"/>
-      <c r="G147" s="15"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="188"/>
+      <c r="F147" s="188"/>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="155" t="s">
+      <c r="A148" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="15"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="12"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="156" t="s">
+      <c r="A149" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="157"/>
-      <c r="C149" s="157"/>
-      <c r="D149" s="157"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="15"/>
+      <c r="B149" s="149"/>
+      <c r="C149" s="149"/>
+      <c r="D149" s="149"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="12"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="158" t="s">
+      <c r="A150" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="159"/>
-      <c r="C150" s="159"/>
-      <c r="D150" s="159"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="15"/>
+      <c r="B150" s="151"/>
+      <c r="C150" s="151"/>
+      <c r="D150" s="151"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="12"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="160" t="s">
+      <c r="A151" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="B151" s="161"/>
-      <c r="C151" s="161"/>
-      <c r="D151" s="161"/>
-      <c r="E151" s="162">
+      <c r="B151" s="153"/>
+      <c r="C151" s="153"/>
+      <c r="D151" s="153"/>
+      <c r="E151" s="154">
         <v>27935</v>
       </c>
-      <c r="F151" s="162">
+      <c r="F151" s="154">
         <v>174476</v>
       </c>
-      <c r="G151" s="15"/>
+      <c r="G151" s="12"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B152" s="163"/>
-      <c r="C152" s="163" t="s">
+      <c r="B152" s="155"/>
+      <c r="C152" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="D152" s="41"/>
-      <c r="E152" s="40">
+      <c r="D152" s="37"/>
+      <c r="E152" s="36">
         <f>SUM(E142:E146)</f>
         <v>7036350100</v>
       </c>
-      <c r="F152" s="40">
+      <c r="F152" s="36">
         <f>SUM(F142:F146)</f>
         <v>2083524796</v>
       </c>
-      <c r="G152" s="127"/>
+      <c r="G152" s="120"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="164"/>
-      <c r="B153" s="165"/>
-      <c r="C153" s="165"/>
-      <c r="D153" s="165"/>
-      <c r="E153" s="205"/>
-      <c r="F153" s="205"/>
-      <c r="G153" s="15"/>
+      <c r="A153" s="156"/>
+      <c r="B153" s="157"/>
+      <c r="C153" s="157"/>
+      <c r="D153" s="157"/>
+      <c r="E153" s="191"/>
+      <c r="F153" s="191"/>
+      <c r="G153" s="12"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="166" t="s">
+      <c r="A154" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="128" t="s">
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="F154" s="128" t="s">
+      <c r="F154" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="G154" s="15"/>
+      <c r="G154" s="12"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="18"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="14"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="167" t="s">
+      <c r="A156" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="194"/>
-      <c r="F156" s="194"/>
-      <c r="G156" s="194"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="193"/>
+      <c r="F156" s="193"/>
+      <c r="G156" s="193"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="167" t="s">
+      <c r="A157" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="18"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="14"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="167" t="s">
+      <c r="A158" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="168"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="168"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="159"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="159"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="169" t="s">
+      <c r="A159" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="170"/>
-      <c r="F159" s="170"/>
-      <c r="G159" s="170"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="160"/>
+      <c r="F159" s="160"/>
+      <c r="G159" s="160"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="194"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="193"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="151" t="s">
+      <c r="A161" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="163"/>
-      <c r="C161" s="163"/>
-      <c r="D161" s="163"/>
-      <c r="E161" s="152" t="s">
+      <c r="B161" s="155"/>
+      <c r="C161" s="155"/>
+      <c r="D161" s="155"/>
+      <c r="E161" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="F161" s="152" t="s">
+      <c r="F161" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="G161" s="15"/>
+      <c r="G161" s="12"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="113" t="s">
+      <c r="A162" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="114"/>
-      <c r="C162" s="114"/>
-      <c r="D162" s="114"/>
-      <c r="E162" s="115">
+      <c r="B162" s="110"/>
+      <c r="C162" s="110"/>
+      <c r="D162" s="110"/>
+      <c r="E162" s="111">
         <v>2417191232</v>
       </c>
-      <c r="F162" s="115">
+      <c r="F162" s="111">
         <v>389352794</v>
       </c>
-      <c r="G162" s="116"/>
+      <c r="G162" s="112"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="121" t="s">
+      <c r="A163" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="32">
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="28">
         <v>42000000</v>
       </c>
-      <c r="F163" s="32">
+      <c r="F163" s="28">
         <v>36180000</v>
       </c>
-      <c r="G163" s="116"/>
+      <c r="G163" s="112"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="121" t="s">
+      <c r="A164" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="116"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="112"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="121" t="s">
+      <c r="A165" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="32">
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="28">
         <v>2134804</v>
       </c>
-      <c r="F165" s="32"/>
-      <c r="G165" s="116"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="112"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="172" t="s">
+      <c r="A166" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="46"/>
-      <c r="C166" s="46"/>
-      <c r="D166" s="46"/>
-      <c r="E166" s="36">
+      <c r="B166" s="42"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="32">
         <v>6160000</v>
       </c>
-      <c r="F166" s="36"/>
-      <c r="G166" s="116"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="112"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="124" t="s">
+      <c r="A167" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="89"/>
-      <c r="C167" s="89"/>
-      <c r="D167" s="89"/>
-      <c r="E167" s="173">
+      <c r="B167" s="85"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="163">
         <f>SUM(E162:E166)</f>
         <v>2467486036</v>
       </c>
-      <c r="F167" s="173">
+      <c r="F167" s="163">
         <f>SUM(F162:F166)</f>
         <v>425532794</v>
       </c>
-      <c r="G167" s="18"/>
+      <c r="G167" s="14"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="194"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="193"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="194"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="193"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="194"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="193"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="42"/>
-      <c r="C171" s="42"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="23" t="s">
+      <c r="B171" s="38"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F171" s="23" t="s">
+      <c r="F171" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G171" s="15"/>
+      <c r="G171" s="12"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="174" t="s">
+      <c r="A172" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="175"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="15"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="165"/>
+      <c r="F172" s="41"/>
+      <c r="G172" s="12"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="176" t="s">
+      <c r="A173" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="171"/>
-      <c r="F173" s="122"/>
-      <c r="G173" s="15"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="161"/>
+      <c r="F173" s="115"/>
+      <c r="G173" s="12"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="177" t="s">
+      <c r="A174" s="167" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="178"/>
-      <c r="C174" s="178"/>
-      <c r="D174" s="178"/>
-      <c r="E174" s="179"/>
-      <c r="F174" s="180"/>
-      <c r="G174" s="15"/>
+      <c r="B174" s="168"/>
+      <c r="C174" s="168"/>
+      <c r="D174" s="168"/>
+      <c r="E174" s="169"/>
+      <c r="F174" s="170"/>
+      <c r="G174" s="12"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="181"/>
-      <c r="B175" s="182"/>
-      <c r="C175" s="182"/>
-      <c r="D175" s="182"/>
-      <c r="E175" s="182"/>
-      <c r="F175" s="183"/>
-      <c r="G175" s="15"/>
+      <c r="A175" s="171"/>
+      <c r="B175" s="172"/>
+      <c r="C175" s="172"/>
+      <c r="D175" s="172"/>
+      <c r="E175" s="172"/>
+      <c r="F175" s="173"/>
+      <c r="G175" s="12"/>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B176" s="42"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="23" t="s">
+      <c r="B176" s="38"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F176" s="23" t="s">
+      <c r="F176" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G176" s="15"/>
+      <c r="G176" s="12"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="184" t="s">
+      <c r="A177" s="174" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="185"/>
-      <c r="C177" s="185"/>
-      <c r="D177" s="185"/>
-      <c r="E177" s="186"/>
-      <c r="F177" s="186"/>
-      <c r="G177" s="187"/>
+      <c r="B177" s="175"/>
+      <c r="C177" s="175"/>
+      <c r="D177" s="175"/>
+      <c r="E177" s="176"/>
+      <c r="F177" s="176"/>
+      <c r="G177" s="177"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="188" t="s">
+      <c r="A178" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="189"/>
-      <c r="C178" s="189"/>
-      <c r="D178" s="189"/>
-      <c r="E178" s="190"/>
-      <c r="F178" s="190"/>
-      <c r="G178" s="187"/>
+      <c r="B178" s="179"/>
+      <c r="C178" s="179"/>
+      <c r="D178" s="179"/>
+      <c r="E178" s="180"/>
+      <c r="F178" s="180"/>
+      <c r="G178" s="177"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="191"/>
-      <c r="B179" s="191"/>
-      <c r="C179" s="191"/>
-      <c r="D179" s="191"/>
-      <c r="E179" s="191"/>
-      <c r="F179" s="191"/>
-      <c r="G179" s="191"/>
+      <c r="A179" s="181"/>
+      <c r="B179" s="181"/>
+      <c r="C179" s="181"/>
+      <c r="D179" s="181"/>
+      <c r="E179" s="181"/>
+      <c r="F179" s="181"/>
+      <c r="G179" s="181"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="192" t="s">
+      <c r="A180" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="B180" s="192"/>
-      <c r="C180" s="192"/>
-      <c r="D180" s="192"/>
-      <c r="E180" s="192"/>
-      <c r="F180" s="192"/>
-      <c r="G180" s="187"/>
+      <c r="B180" s="182"/>
+      <c r="C180" s="182"/>
+      <c r="D180" s="182"/>
+      <c r="E180" s="182"/>
+      <c r="F180" s="182"/>
+      <c r="G180" s="177"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="193" t="s">
+      <c r="A181" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B181" s="192"/>
-      <c r="C181" s="192"/>
-      <c r="D181" s="192"/>
-      <c r="E181" s="192"/>
-      <c r="F181" s="192"/>
-      <c r="G181" s="192"/>
+      <c r="B181" s="182"/>
+      <c r="C181" s="182"/>
+      <c r="D181" s="182"/>
+      <c r="E181" s="182"/>
+      <c r="F181" s="182"/>
+      <c r="G181" s="182"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="193" t="s">
+      <c r="A182" s="183" t="s">
         <v>177</v>
       </c>
-      <c r="B182" s="192"/>
-      <c r="C182" s="192"/>
-      <c r="D182" s="192"/>
-      <c r="E182" s="192"/>
-      <c r="F182" s="192"/>
-      <c r="G182" s="187"/>
+      <c r="B182" s="182"/>
+      <c r="C182" s="182"/>
+      <c r="D182" s="182"/>
+      <c r="E182" s="182"/>
+      <c r="F182" s="182"/>
+      <c r="G182" s="177"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="193" t="s">
+      <c r="A183" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="B183" s="192"/>
-      <c r="C183" s="192"/>
-      <c r="D183" s="192"/>
-      <c r="E183" s="192"/>
-      <c r="F183" s="192"/>
-      <c r="G183" s="187"/>
+      <c r="B183" s="182"/>
+      <c r="C183" s="182"/>
+      <c r="D183" s="182"/>
+      <c r="E183" s="182"/>
+      <c r="F183" s="182"/>
+      <c r="G183" s="177"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="193" t="s">
+      <c r="A184" s="183" t="s">
         <v>179</v>
       </c>
-      <c r="B184" s="192"/>
-      <c r="C184" s="192"/>
-      <c r="D184" s="192"/>
-      <c r="E184" s="192"/>
-      <c r="F184" s="192"/>
-      <c r="G184" s="187"/>
+      <c r="B184" s="182"/>
+      <c r="C184" s="182"/>
+      <c r="D184" s="182"/>
+      <c r="E184" s="182"/>
+      <c r="F184" s="182"/>
+      <c r="G184" s="177"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="194"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="193"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="194"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="193"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="194"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="193"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="194"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="193"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="194"/>
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="193"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="207"/>
-      <c r="B191" s="208"/>
-      <c r="C191" s="208"/>
-      <c r="D191" s="208"/>
-      <c r="E191" s="208"/>
-      <c r="F191" s="208"/>
-      <c r="G191" s="208"/>
+      <c r="A191" s="201"/>
+      <c r="B191" s="202"/>
+      <c r="C191" s="202"/>
+      <c r="D191" s="202"/>
+      <c r="E191" s="202"/>
+      <c r="F191" s="202"/>
+      <c r="G191" s="202"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="209" t="s">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="203" t="s">
         <v>190</v>
       </c>
-      <c r="G192" s="209"/>
+      <c r="G192" s="203"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="194" t="s">
+      <c r="A194" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="209" t="s">
+      <c r="B194" s="3"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="G194" s="209"/>
+      <c r="G194" s="203"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="194" t="s">
+      <c r="A195" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="11"/>
-      <c r="F195" s="209" t="s">
+      <c r="B195" s="3"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="G195" s="209"/>
+      <c r="G195" s="203"/>
     </row>
     <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="197"/>
